--- a/Bracket-Prediction/PLL/2019/PLL_Data.xlsx
+++ b/Bracket-Prediction/PLL/2019/PLL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a0a0b52b50ae19/Bracket_Prediction/PLL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1389" documentId="8_{8D97C909-B4D6-4EFC-BB84-CB24C8E2771D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DF7024F-240B-45E2-8FB7-2B10F572E726}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{9C24A387-2B9C-45BF-9B5E-68BF7F66AC5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{96283FEF-EA78-4F0A-8EE2-105ED02D77F7}"/>
   <bookViews>
-    <workbookView xWindow="-17100" yWindow="-15" windowWidth="12375" windowHeight="9675" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13680" yWindow="1350" windowWidth="12375" windowHeight="9675" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLL_Data" sheetId="2" r:id="rId1"/>
@@ -8635,8 +8635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA8EA6-9D06-46FE-AF8A-FC2C4313C384}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9112,7 +9112,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9385,58 +9385,58 @@
         <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E5">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="F5">
-        <v>0.12485937499999999</v>
+        <v>0.15531111111111109</v>
       </c>
       <c r="G5">
-        <v>40.299999999999997</v>
+        <v>41.6</v>
       </c>
       <c r="H5">
-        <v>0.28978660049627791</v>
+        <v>0.28787259615384608</v>
       </c>
       <c r="I5">
-        <v>29.8</v>
+        <v>34.4</v>
       </c>
       <c r="J5">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="K5">
-        <v>4.5999999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="L5">
-        <v>0.61336363636363644</v>
+        <v>0.50592105263157894</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>0.47605432451751251</v>
+        <v>0.39987991594115879</v>
       </c>
       <c r="O5">
-        <v>14</v>
+        <v>12.7</v>
       </c>
       <c r="P5">
-        <v>0.5361482231881346</v>
+        <v>0.50338056112112028</v>
       </c>
       <c r="Q5">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -9451,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AC22B5-40A1-4F6B-9972-55370C96DD62}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9527,52 +9527,52 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="F2">
-        <v>0.19314516129032261</v>
+        <v>0.20646551724137929</v>
       </c>
       <c r="G2">
-        <v>45.7</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H2">
-        <v>0.25340700218818379</v>
+        <v>0.30776762402088781</v>
       </c>
       <c r="I2">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="J2">
-        <v>13.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K2">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="L2">
-        <v>0.51265845070422533</v>
+        <v>0.4758896321070234</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.30712303422756698</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="O2">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="P2">
-        <v>0.52731859894154487</v>
+        <v>0.55684740066159455</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>-2</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -9595,61 +9595,61 @@
         <v>36</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="E3">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="F3">
-        <v>0.20646551724137929</v>
+        <v>4.7452380952380947E-2</v>
       </c>
       <c r="G3">
-        <v>38.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>0.30776762402088781</v>
+        <v>0.2540681818181818</v>
       </c>
       <c r="I3">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="J3">
-        <v>16.399999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="K3">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="L3">
-        <v>0.4758896321070234</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N3">
-        <v>0.47619047619047622</v>
+        <v>0.40681810274923919</v>
       </c>
       <c r="O3">
-        <v>15.6</v>
+        <v>11.7</v>
       </c>
       <c r="P3">
-        <v>0.55684740066159455</v>
+        <v>0.52191971892877276</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -9657,52 +9657,52 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="E4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F4">
-        <v>4.7452380952380947E-2</v>
+        <v>0.1329555555555556</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>41.9</v>
       </c>
       <c r="H4">
-        <v>0.2540681818181818</v>
+        <v>0.25010262529832927</v>
       </c>
       <c r="I4">
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="J4">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="K4">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="L4">
-        <v>0.41599999999999998</v>
+        <v>0.46146874999999993</v>
       </c>
       <c r="M4">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="N4">
-        <v>0.40681810274923919</v>
+        <v>0.49976910644193018</v>
       </c>
       <c r="O4">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="P4">
-        <v>0.52191971892877276</v>
+        <v>0.55662492858740076</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -9725,58 +9725,58 @@
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="F5">
-        <v>0.1329555555555556</v>
+        <v>0.12485937499999999</v>
       </c>
       <c r="G5">
-        <v>41.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H5">
-        <v>0.25010262529832927</v>
+        <v>0.28978660049627791</v>
       </c>
       <c r="I5">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="J5">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="K5">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L5">
-        <v>0.46146874999999993</v>
+        <v>0.61336363636363644</v>
       </c>
       <c r="M5">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.49976910644193018</v>
+        <v>0.47605432451751251</v>
       </c>
       <c r="O5">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="P5">
-        <v>0.55662492858740076</v>
+        <v>0.5361482231881346</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -9792,7 +9792,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9931,11 +9931,11 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9944,11 +9944,11 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="5"/>
